--- a/Data/WorkingParents.xlsx
+++ b/Data/WorkingParents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE48A67-3BF4-1F48-9291-D65B7F469074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F69DCC2E-0673-7841-BF4F-E7E3D95904A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13760" yWindow="900" windowWidth="14660" windowHeight="15780" xr2:uid="{97792E81-1140-AE4D-839D-4FE5A8C60BB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Question</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>83, 85</t>
+  </si>
+  <si>
+    <t>November 10 - November 16; November 21 - November 24</t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,7 +607,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="323" x14ac:dyDescent="0.2">
@@ -615,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data/WorkingParents.xlsx
+++ b/Data/WorkingParents.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Question</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <r>
@@ -96,6 +96,9 @@
 ■  I'm not sure</t>
   </si>
   <si>
+    <t>11/10/2021-11/16/2021 11/21/2021-11/24/2021</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Which childcare assistance, benefits, or accomodations did you regularly receive from your emplyoer </t>
     </r>
@@ -176,18 +179,12 @@
 ▢ Resources to help employees find childcare 
 ▢ Other, please specify:  </t>
   </si>
-  <si>
-    <t>83, 85</t>
-  </si>
-  <si>
-    <t>November 10 - November 16; November 21 - November 24</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,13 +234,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,17 +561,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B3255C-007D-F54B-8BDA-A0818EF56E04}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,37 +589,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="236.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="330.75">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="299.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="356" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="323" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data/WorkingParents.xlsx
+++ b/Data/WorkingParents.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjmrYVIPIxSUiU/wYUmTm5+ioHMKw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhuTi49JUdZX9dojSYmdLXZyEvxQw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Question</t>
   </si>
@@ -77,6 +77,9 @@
 • Moderately
 • A great deal
 • I'm not sure</t>
+  </si>
+  <si>
+    <t>US Chamber of Commerce Foundation</t>
   </si>
   <si>
     <t>11/10/2021-11/16/2021 11/21/2021-11/24/2021</t>
@@ -208,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -217,6 +220,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -471,36 +477,42 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
+      <c r="A4" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
